--- a/medicine/Sexualité et sexologie/Charlotte_Wolff/Charlotte_Wolff.xlsx
+++ b/medicine/Sexualité et sexologie/Charlotte_Wolff/Charlotte_Wolff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Wolff (Riesenburg, 30 septembre 1897 – Londres, 2 septembre 1986) est une sexologue et chirologue allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née près de Dantzig dans une famille allemande aux origines juives, Charlotte Wolff fait des études de médecine à Fribourg et Berlin. A Fribourg, elle suit les cours de Husserl et Heidegger. Recevant son diplôme de docteur en 1928, elle commence à travailler à Berlin. Elle y découvre l'émergence du mouvement de libération gay et rencontre le sexologue Magnus Hirschfeld.
 En 1933, elle décide de  fuir l'Allemagne à cause de l'antisémitisme, et gagne Paris. Elle y développe son étude psychologique de la main ou « chirologie ». Elle rencontre les surréalistes et se lie avec André Breton, Paul Éluard, Marcel Duchamp… En 1936, sur l'invitation de Maria et Aldous Huxley, elle se rend à Londres où elle rencontre Virginia Woolf, T. S. Eliot, George Bernard Shaw, et son compatriote Thomas Mann.
